--- a/data/trans_orig/P41B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A37C72-1114-4317-A984-B06BE29D328B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FF7B1D1-FDC8-436B-8BC4-C1AB2CC80290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FCDB698C-BFAD-4676-8AD9-FDE99578523D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0C2D89BF-0C56-433A-A4B9-17B25363C4DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="593">
   <si>
     <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2007 (Tasa respuesta: 54,77%)</t>
   </si>
@@ -80,1786 +80,1744 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>Por su precio, no puede comprarlo</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>No conoce los métodos anticonceptivos</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>Por razones de salud</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>Se opone al uso de anticonceptivos</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>Quiere quedar embarazada</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>Está embarazada</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>No lo necesita</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2012 (Tasa respuesta: 55,14%)</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>Por su precio, no puede comprarlo</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>No conoce los métodos anticonceptivos</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>Por razones de salud</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2015 (Tasa respuesta: 56,01%)</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2023 (Tasa respuesta: 48,54%)</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>Se opone al uso de anticonceptivos</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>Quiere quedar embarazada</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>Está embarazada</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>No lo necesita</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2012 (Tasa respuesta: 55,14%)</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2015 (Tasa respuesta: 56,01%)</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2023 (Tasa respuesta: 48,54%)</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
     <t>81,36%</t>
   </si>
   <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>83,3%</t>
   </si>
   <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002320E8-71D8-48E3-9E6B-F4E64FBE37E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DBB9CF-E040-482C-BEAA-9156B6EC0AED}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2614,10 +2572,10 @@
         <v>16000</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>42</v>
@@ -2668,7 +2626,7 @@
         <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>49</v>
@@ -2719,7 +2677,7 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>55</v>
@@ -2731,19 +2689,19 @@
         <v>8135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7">
         <v>776</v>
@@ -2752,13 +2710,13 @@
         <v>755904</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>1037</v>
@@ -2767,13 +2725,13 @@
         <v>1052437</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1813</v>
@@ -2782,13 +2740,13 @@
         <v>1808341</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2803,13 +2761,13 @@
         <v>780520</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>1072</v>
@@ -2818,13 +2776,13 @@
         <v>1089874</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>1871</v>
@@ -2833,18 +2791,18 @@
         <v>1870394</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2862,7 +2820,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2871,13 +2829,13 @@
         <v>2041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2892,7 +2850,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,7 +2871,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2943,7 +2901,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,7 +2922,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3012,10 +2970,10 @@
         <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -3024,13 +2982,13 @@
         <v>5958</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3039,13 +2997,13 @@
         <v>10842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,13 +3018,13 @@
         <v>16985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -3075,13 +3033,13 @@
         <v>10525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -3090,13 +3048,13 @@
         <v>27510</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3069,13 @@
         <v>37357</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -3126,13 +3084,13 @@
         <v>39770</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>76</v>
@@ -3141,13 +3099,13 @@
         <v>77127</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3120,13 @@
         <v>31282</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -3177,13 +3135,13 @@
         <v>34704</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -3192,19 +3150,19 @@
         <v>65986</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="7">
         <v>551</v>
@@ -3213,13 +3171,13 @@
         <v>557742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H20" s="7">
         <v>604</v>
@@ -3228,13 +3186,13 @@
         <v>619042</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
         <v>1155</v>
@@ -3243,13 +3201,13 @@
         <v>1176784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3222,13 @@
         <v>649930</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H21" s="7">
         <v>693</v>
@@ -3279,13 +3237,13 @@
         <v>712040</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M21" s="7">
         <v>1333</v>
@@ -3294,18 +3252,18 @@
         <v>1361970</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3323,7 +3281,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3332,13 +3290,13 @@
         <v>1583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3347,13 +3305,13 @@
         <v>1583</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,7 +3332,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3389,7 +3347,7 @@
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3404,7 +3362,7 @@
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,7 +3383,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3440,7 +3398,7 @@
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3455,7 +3413,7 @@
         <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3428,13 @@
         <v>4552</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3485,13 +3443,13 @@
         <v>2108</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -3500,13 +3458,13 @@
         <v>6660</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3479,13 @@
         <v>935</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3536,13 +3494,13 @@
         <v>4969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3551,13 +3509,13 @@
         <v>5904</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3530,13 @@
         <v>13841</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -3587,13 +3545,13 @@
         <v>10094</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M27" s="7">
         <v>26</v>
@@ -3602,13 +3560,13 @@
         <v>23935</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3581,13 @@
         <v>16865</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -3638,13 +3596,13 @@
         <v>12467</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M28" s="7">
         <v>29</v>
@@ -3653,19 +3611,19 @@
         <v>29331</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="7">
         <v>145</v>
@@ -3674,13 +3632,13 @@
         <v>154442</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H29" s="7">
         <v>151</v>
@@ -3689,13 +3647,13 @@
         <v>156976</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>296</v>
@@ -3704,13 +3662,13 @@
         <v>311418</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3683,13 @@
         <v>190636</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>179</v>
@@ -3740,13 +3698,13 @@
         <v>188196</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M30" s="7">
         <v>362</v>
@@ -3755,13 +3713,13 @@
         <v>378832</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,13 +3736,13 @@
         <v>1069</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -3796,10 +3754,10 @@
         <v>20</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -3811,10 +3769,10 @@
         <v>51</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,7 +3802,7 @@
         <v>1593</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
@@ -3865,7 +3823,7 @@
         <v>168</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,7 +3874,7 @@
         <v>19</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,10 +3889,10 @@
         <v>15163</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>172</v>
@@ -3946,10 +3904,10 @@
         <v>14638</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>174</v>
@@ -3964,10 +3922,10 @@
         <v>175</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +3940,13 @@
         <v>32809</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H35" s="7">
         <v>28</v>
@@ -3997,13 +3955,13 @@
         <v>31494</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M35" s="7">
         <v>57</v>
@@ -4012,13 +3970,13 @@
         <v>64303</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +3991,13 @@
         <v>54130</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -4048,13 +4006,13 @@
         <v>53798</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M36" s="7">
         <v>109</v>
@@ -4063,13 +4021,13 @@
         <v>107928</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4042,13 @@
         <v>48147</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -4099,10 +4057,10 @@
         <v>55306</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>198</v>
@@ -4120,13 +4078,13 @@
         <v>200</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7">
         <v>1472</v>
@@ -4135,13 +4093,13 @@
         <v>1468087</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H38" s="7">
         <v>1792</v>
@@ -4150,13 +4108,13 @@
         <v>1828454</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M38" s="7">
         <v>3264</v>
@@ -4165,13 +4123,13 @@
         <v>3296542</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4144,13 @@
         <v>1621085</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" s="7">
         <v>1944</v>
@@ -4201,13 +4159,13 @@
         <v>1990110</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M39" s="7">
         <v>3566</v>
@@ -4216,18 +4174,18 @@
         <v>3611195</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4246,7 +4204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EC6EE9-F975-4222-9D97-A9B27AB3C68A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C014FAFC-6438-45C0-A324-2E408E573389}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4263,7 +4221,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4391,7 +4349,7 @@
         <v>19</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4427,7 +4385,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4454,10 +4412,10 @@
         <v>51</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4493,7 +4451,7 @@
         <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4526,7 +4484,7 @@
         <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>216</v>
@@ -4556,10 +4514,10 @@
         <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,10 +4535,10 @@
         <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4589,13 +4547,13 @@
         <v>12895</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -4604,13 +4562,13 @@
         <v>27799</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4583,13 @@
         <v>13289</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -4640,13 +4598,13 @@
         <v>10065</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -4655,13 +4613,13 @@
         <v>23354</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4634,13 @@
         <v>2194</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4691,13 +4649,13 @@
         <v>8461</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4706,19 +4664,19 @@
         <v>10655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7">
         <v>646</v>
@@ -4727,13 +4685,13 @@
         <v>702366</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H11" s="7">
         <v>979</v>
@@ -4742,13 +4700,13 @@
         <v>1051283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>1625</v>
@@ -4757,13 +4715,13 @@
         <v>1753649</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,13 +4736,13 @@
         <v>752741</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>1027</v>
@@ -4793,13 +4751,13 @@
         <v>1103243</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>1720</v>
@@ -4808,18 +4766,18 @@
         <v>1855984</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4837,7 +4795,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4846,7 +4804,7 @@
         <v>4972</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>249</v>
@@ -4861,13 +4819,13 @@
         <v>7991</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,10 +4843,10 @@
         <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4903,7 +4861,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4912,13 +4870,13 @@
         <v>7350</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,7 +4897,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4963,13 +4921,13 @@
         <v>897</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4942,13 @@
         <v>42612</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -4999,13 +4957,13 @@
         <v>69399</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -5014,13 +4972,13 @@
         <v>112010</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +4993,13 @@
         <v>25962</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -5050,13 +5008,13 @@
         <v>11170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -5065,13 +5023,13 @@
         <v>37132</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>133</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5044,13 @@
         <v>37282</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>260</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>48</v>
@@ -5101,13 +5059,13 @@
         <v>51552</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -5116,13 +5074,13 @@
         <v>88834</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5140,10 +5098,10 @@
         <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -5152,13 +5110,13 @@
         <v>35007</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -5167,7 +5125,7 @@
         <v>48486</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>283</v>
@@ -5179,7 +5137,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="7">
         <v>635</v>
@@ -5239,13 +5197,13 @@
         <v>818710</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H21" s="7">
         <v>811</v>
@@ -5254,13 +5212,13 @@
         <v>880788</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M21" s="7">
         <v>1571</v>
@@ -5269,18 +5227,18 @@
         <v>1699498</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5292,13 +5250,13 @@
         <v>930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>165</v>
+        <v>294</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5307,13 +5265,13 @@
         <v>1809</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -5328,7 +5286,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,7 +5307,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5364,7 +5322,7 @@
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5400,7 +5358,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5415,7 +5373,7 @@
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5445,13 +5403,13 @@
         <v>4970</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -5460,13 +5418,13 @@
         <v>16033</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -5475,13 +5433,13 @@
         <v>21004</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5454,13 @@
         <v>7914</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5511,10 +5469,10 @@
         <v>5961</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>310</v>
@@ -5526,13 +5484,13 @@
         <v>13874</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5505,13 @@
         <v>9584</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -5562,13 +5520,13 @@
         <v>13664</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M27" s="7">
         <v>21</v>
@@ -5577,13 +5535,13 @@
         <v>23248</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5556,13 @@
         <v>4883</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5613,13 +5571,13 @@
         <v>17039</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M28" s="7">
         <v>21</v>
@@ -5628,19 +5586,19 @@
         <v>21922</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="7">
         <v>108</v>
@@ -5649,13 +5607,13 @@
         <v>123743</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>108</v>
@@ -5664,13 +5622,13 @@
         <v>124825</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M29" s="7">
         <v>216</v>
@@ -5679,13 +5637,13 @@
         <v>248567</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5658,13 @@
         <v>152023</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>157</v>
@@ -5715,13 +5673,13 @@
         <v>179331</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M30" s="7">
         <v>291</v>
@@ -5730,13 +5688,13 @@
         <v>331354</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,13 +5711,13 @@
         <v>3949</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -5768,13 +5726,13 @@
         <v>6781</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -5786,10 +5744,10 @@
         <v>75</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>73</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5762,13 @@
         <v>7015</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>17</v>
+        <v>341</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -5822,10 +5780,10 @@
         <v>21</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -5837,10 +5795,10 @@
         <v>29</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>343</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5813,13 @@
         <v>897</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>340</v>
+        <v>72</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5891,7 +5849,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5864,13 @@
         <v>66656</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>346</v>
+        <v>102</v>
       </c>
       <c r="H34" s="7">
         <v>94</v>
@@ -5921,13 +5879,13 @@
         <v>103976</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M34" s="7">
         <v>159</v>
@@ -5936,13 +5894,13 @@
         <v>170632</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5915,13 @@
         <v>48779</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>281</v>
+        <v>349</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H35" s="7">
         <v>26</v>
@@ -5972,13 +5930,13 @@
         <v>30025</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>352</v>
+        <v>55</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M35" s="7">
         <v>67</v>
@@ -5990,10 +5948,10 @@
         <v>220</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +5966,13 @@
         <v>60155</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>357</v>
+        <v>140</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H36" s="7">
         <v>71</v>
@@ -6023,13 +5981,13 @@
         <v>75281</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>359</v>
+        <v>149</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M36" s="7">
         <v>130</v>
@@ -6038,13 +5996,13 @@
         <v>135435</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>359</v>
+        <v>149</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6017,13 @@
         <v>20557</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>174</v>
+        <v>358</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>125</v>
+        <v>359</v>
       </c>
       <c r="H37" s="7">
         <v>57</v>
@@ -6074,13 +6032,13 @@
         <v>60507</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>134</v>
+        <v>362</v>
       </c>
       <c r="M37" s="7">
         <v>78</v>
@@ -6089,19 +6047,19 @@
         <v>81063</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>172</v>
+        <v>364</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>366</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7">
         <v>1389</v>
@@ -6110,13 +6068,13 @@
         <v>1515466</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H38" s="7">
         <v>1738</v>
@@ -6125,13 +6083,13 @@
         <v>1883548</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M38" s="7">
         <v>3127</v>
@@ -6140,13 +6098,13 @@
         <v>3399014</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,13 +6119,13 @@
         <v>1723474</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" s="7">
         <v>1995</v>
@@ -6176,13 +6134,13 @@
         <v>2163362</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M39" s="7">
         <v>3582</v>
@@ -6191,18 +6149,18 @@
         <v>3886836</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -6221,7 +6179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1062840D-BC69-4A11-AD26-566D3A5C13F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392B9B83-B0DB-4DE2-8F5D-0299D7A58B53}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6238,7 +6196,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6351,7 +6309,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6366,7 +6324,7 @@
         <v>19</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6402,7 +6360,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6417,7 +6375,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6432,7 +6390,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,7 +6411,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6468,7 +6426,7 @@
         <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6498,13 +6456,13 @@
         <v>2860</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6513,13 +6471,13 @@
         <v>2875</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6528,13 +6486,13 @@
         <v>5736</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>213</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6549,13 +6507,13 @@
         <v>7724</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>383</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
+        <v>280</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6564,13 +6522,13 @@
         <v>7023</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -6579,13 +6537,13 @@
         <v>14748</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>295</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,13 +6558,13 @@
         <v>1945</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>390</v>
+        <v>224</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -6615,13 +6573,13 @@
         <v>6619</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>377</v>
+        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -6630,13 +6588,13 @@
         <v>8564</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>123</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,13 +6609,13 @@
         <v>1865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>386</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -6666,13 +6624,13 @@
         <v>6137</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>387</v>
+        <v>83</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -6681,19 +6639,19 @@
         <v>8002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>116</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7">
         <v>589</v>
@@ -6702,13 +6660,13 @@
         <v>572326</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H11" s="7">
         <v>738</v>
@@ -6717,13 +6675,13 @@
         <v>841908</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M11" s="7">
         <v>1327</v>
@@ -6732,13 +6690,13 @@
         <v>1414235</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6711,13 @@
         <v>586721</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>762</v>
@@ -6768,13 +6726,13 @@
         <v>866630</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>1364</v>
@@ -6783,18 +6741,18 @@
         <v>1453351</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6812,7 +6770,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6827,7 +6785,7 @@
         <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6857,13 +6815,13 @@
         <v>4277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>39</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6872,13 +6830,13 @@
         <v>3037</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -6890,10 +6848,10 @@
         <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,7 +6872,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -6929,7 +6887,7 @@
         <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -6938,7 +6896,7 @@
         <v>974</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>12</v>
@@ -6959,13 +6917,13 @@
         <v>21957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>224</v>
+        <v>400</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -6974,13 +6932,13 @@
         <v>28255</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>139</v>
+        <v>355</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -6989,13 +6947,13 @@
         <v>50213</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>129</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,10 +6971,10 @@
         <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -7025,13 +6983,13 @@
         <v>16518</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>49</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -7040,13 +6998,13 @@
         <v>32897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>177</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7019,13 @@
         <v>41327</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>416</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -7076,13 +7034,13 @@
         <v>29424</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -7091,13 +7049,13 @@
         <v>70751</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>359</v>
+        <v>149</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>280</v>
+        <v>355</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>321</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,13 +7070,13 @@
         <v>7877</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>377</v>
+        <v>24</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>180</v>
+        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -7127,13 +7085,13 @@
         <v>27087</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -7142,19 +7100,19 @@
         <v>34964</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>182</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="7">
         <v>843</v>
@@ -7163,13 +7121,13 @@
         <v>901894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>851</v>
@@ -7178,13 +7136,13 @@
         <v>933453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>1694</v>
@@ -7193,13 +7151,13 @@
         <v>1835347</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7214,13 +7172,13 @@
         <v>994685</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H21" s="7">
         <v>955</v>
@@ -7229,13 +7187,13 @@
         <v>1037775</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M21" s="7">
         <v>1881</v>
@@ -7244,18 +7202,18 @@
         <v>2032460</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7273,7 +7231,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>255</v>
+        <v>407</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7303,7 +7261,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,7 +7282,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>407</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7354,7 +7312,7 @@
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,7 +7333,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>255</v>
+        <v>407</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7405,7 +7363,7 @@
         <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,13 +7378,13 @@
         <v>6311</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -7435,13 +7393,13 @@
         <v>16519</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>274</v>
+        <v>327</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -7450,13 +7408,13 @@
         <v>22829</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,13 +7429,13 @@
         <v>4970</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>439</v>
+        <v>301</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -7486,13 +7444,13 @@
         <v>1966</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -7501,13 +7459,13 @@
         <v>6937</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>442</v>
+        <v>268</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>443</v>
+        <v>214</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>265</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,13 +7480,13 @@
         <v>11490</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>444</v>
+        <v>296</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>445</v>
+        <v>196</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="H27" s="7">
         <v>15</v>
@@ -7537,13 +7495,13 @@
         <v>15454</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>132</v>
+        <v>439</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>351</v>
+        <v>440</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M27" s="7">
         <v>26</v>
@@ -7552,13 +7510,13 @@
         <v>26944</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>348</v>
+        <v>442</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7573,13 +7531,13 @@
         <v>4158</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>251</v>
+        <v>446</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -7588,13 +7546,13 @@
         <v>12629</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M28" s="7">
         <v>15</v>
@@ -7603,19 +7561,19 @@
         <v>16788</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="7">
         <v>182</v>
@@ -7624,13 +7582,13 @@
         <v>200185</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H29" s="7">
         <v>167</v>
@@ -7639,13 +7597,13 @@
         <v>183974</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M29" s="7">
         <v>349</v>
@@ -7654,13 +7612,13 @@
         <v>384159</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7633,13 @@
         <v>227114</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>212</v>
@@ -7690,13 +7648,13 @@
         <v>230542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M30" s="7">
         <v>418</v>
@@ -7705,13 +7663,13 @@
         <v>457656</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7764,7 +7722,7 @@
         <v>19</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7782,10 +7740,10 @@
         <v>20</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>237</v>
+        <v>294</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -7800,7 +7758,7 @@
         <v>23</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>388</v>
+        <v>171</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -7815,7 +7773,7 @@
         <v>27</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7830,13 +7788,13 @@
         <v>974</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -7881,13 +7839,13 @@
         <v>31128</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>466</v>
+        <v>120</v>
       </c>
       <c r="H34" s="7">
         <v>46</v>
@@ -7896,13 +7854,13 @@
         <v>47649</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>468</v>
+        <v>77</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M34" s="7">
         <v>74</v>
@@ -7911,13 +7869,13 @@
         <v>78778</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,13 +7890,13 @@
         <v>29073</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>472</v>
+        <v>172</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>119</v>
+        <v>387</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="H35" s="7">
         <v>24</v>
@@ -7947,13 +7905,13 @@
         <v>25508</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>174</v>
+        <v>358</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>54</v>
+        <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>474</v>
+        <v>128</v>
       </c>
       <c r="M35" s="7">
         <v>49</v>
@@ -7962,13 +7920,13 @@
         <v>54581</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>450</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7983,13 +7941,13 @@
         <v>54762</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>231</v>
+        <v>468</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="H36" s="7">
         <v>51</v>
@@ -7998,13 +7956,13 @@
         <v>51497</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M36" s="7">
         <v>101</v>
@@ -8013,13 +7971,13 @@
         <v>106259</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>410</v>
+        <v>140</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>118</v>
+        <v>398</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8034,13 +7992,13 @@
         <v>13900</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>178</v>
+        <v>475</v>
       </c>
       <c r="H37" s="7">
         <v>47</v>
@@ -8049,13 +8007,13 @@
         <v>45854</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="M37" s="7">
         <v>59</v>
@@ -8064,19 +8022,19 @@
         <v>59755</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>442</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>481</v>
+        <v>36</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>482</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7">
         <v>1614</v>
@@ -8085,13 +8043,13 @@
         <v>1674405</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H38" s="7">
         <v>1756</v>
@@ -8100,13 +8058,13 @@
         <v>1959335</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>486</v>
+        <v>423</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="M38" s="7">
         <v>3370</v>
@@ -8115,13 +8073,13 @@
         <v>3633740</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8094,13 @@
         <v>1808520</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" s="7">
         <v>1929</v>
@@ -8151,13 +8109,13 @@
         <v>2134947</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M39" s="7">
         <v>3663</v>
@@ -8166,18 +8124,18 @@
         <v>3943467</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -8196,7 +8154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07D86D2-EDF1-41FC-9098-BA44C1352295}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E4C91-AACA-442C-9D6B-6E605F21B051}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8213,7 +8171,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8320,13 +8278,13 @@
         <v>7494</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>473</v>
+        <v>42</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>380</v>
+        <v>467</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -8335,13 +8293,13 @@
         <v>17985</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>476</v>
+        <v>344</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -8350,13 +8308,13 @@
         <v>25479</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>496</v>
+        <v>405</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,7 +8335,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8392,7 +8350,7 @@
         <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8428,7 +8386,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8443,7 +8401,7 @@
         <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8473,13 +8431,13 @@
         <v>1403</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>498</v>
+        <v>229</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -8491,10 +8449,10 @@
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>490</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -8503,13 +8461,13 @@
         <v>3057</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>78</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8524,13 +8482,13 @@
         <v>3414</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>386</v>
+        <v>71</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -8542,10 +8500,10 @@
         <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>492</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -8554,13 +8512,13 @@
         <v>6898</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>380</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8575,13 +8533,13 @@
         <v>5290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>392</v>
+        <v>494</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -8590,13 +8548,13 @@
         <v>2468</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>133</v>
+        <v>492</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -8605,13 +8563,13 @@
         <v>7759</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>501</v>
+        <v>48</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>502</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,7 +8590,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -8647,7 +8605,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -8656,19 +8614,19 @@
         <v>1021</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7">
         <v>432</v>
@@ -8677,28 +8635,28 @@
         <v>307156</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H11" s="7">
         <v>778</v>
       </c>
       <c r="I11" s="7">
-        <v>436149</v>
+        <v>436150</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="M11" s="7">
         <v>1210</v>
@@ -8707,13 +8665,13 @@
         <v>743305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,28 +8686,28 @@
         <v>324757</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>821</v>
       </c>
       <c r="I12" s="7">
-        <v>462760</v>
+        <v>462761</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>1276</v>
@@ -8758,18 +8716,18 @@
         <v>787517</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -8781,13 +8739,13 @@
         <v>115905</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -8796,13 +8754,13 @@
         <v>66303</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -8811,13 +8769,13 @@
         <v>182208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>519</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8889,7 +8847,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -8898,13 +8856,13 @@
         <v>710</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -8919,7 +8877,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>378</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8934,13 +8892,13 @@
         <v>11414</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>512</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -8949,13 +8907,13 @@
         <v>9950</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>446</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -8964,13 +8922,13 @@
         <v>21365</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8985,13 +8943,13 @@
         <v>23592</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>416</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -9000,13 +8958,13 @@
         <v>32989</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>346</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -9015,13 +8973,13 @@
         <v>56580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>523</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9036,13 +8994,13 @@
         <v>31092</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>517</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>452</v>
+        <v>261</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -9051,13 +9009,13 @@
         <v>31980</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>525</v>
+        <v>270</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>526</v>
+        <v>306</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>267</v>
+        <v>518</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -9066,13 +9024,13 @@
         <v>63073</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>357</v>
+        <v>520</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9087,13 +9045,13 @@
         <v>9683</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>522</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>122</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -9102,13 +9060,13 @@
         <v>10500</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>438</v>
+        <v>283</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -9117,19 +9075,19 @@
         <v>20183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="7">
         <v>747</v>
@@ -9138,13 +9096,13 @@
         <v>626322</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="H20" s="7">
         <v>1112</v>
@@ -9153,13 +9111,13 @@
         <v>794110</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M20" s="7">
         <v>1859</v>
@@ -9168,13 +9126,13 @@
         <v>1420433</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9189,13 +9147,13 @@
         <v>818812</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H21" s="7">
         <v>1314</v>
@@ -9204,13 +9162,13 @@
         <v>946543</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M21" s="7">
         <v>2197</v>
@@ -9219,18 +9177,18 @@
         <v>1765355</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9242,13 +9200,13 @@
         <v>26866</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
@@ -9257,13 +9215,13 @@
         <v>27936</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
@@ -9272,13 +9230,13 @@
         <v>54803</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9299,7 +9257,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -9314,7 +9272,7 @@
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>547</v>
+        <v>80</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -9329,7 +9287,7 @@
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9344,13 +9302,13 @@
         <v>899</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>548</v>
+        <v>24</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>83</v>
+        <v>404</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -9365,7 +9323,7 @@
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>547</v>
+        <v>80</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9380,7 +9338,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>501</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9395,13 +9353,13 @@
         <v>3137</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>36</v>
+        <v>522</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>541</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -9410,13 +9368,13 @@
         <v>11829</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>470</v>
+        <v>88</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -9425,13 +9383,13 @@
         <v>14966</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>357</v>
+        <v>543</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>550</v>
+        <v>227</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9446,13 +9404,13 @@
         <v>9159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>551</v>
+        <v>103</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>385</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -9461,13 +9419,13 @@
         <v>11245</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>553</v>
+        <v>195</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -9476,13 +9434,13 @@
         <v>20404</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>42</v>
+        <v>549</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9497,13 +9455,13 @@
         <v>10841</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>558</v>
+        <v>95</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>559</v>
+        <v>434</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="H27" s="7">
         <v>25</v>
@@ -9512,13 +9470,13 @@
         <v>19726</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="M27" s="7">
         <v>37</v>
@@ -9527,13 +9485,13 @@
         <v>30566</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>565</v>
+        <v>216</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9548,13 +9506,13 @@
         <v>1821</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>567</v>
+        <v>267</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>219</v>
+        <v>363</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -9563,13 +9521,13 @@
         <v>5949</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>440</v>
+        <v>73</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -9578,19 +9536,19 @@
         <v>7770</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>569</v>
+        <v>81</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>570</v>
+        <v>225</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="7">
         <v>274</v>
@@ -9599,13 +9557,13 @@
         <v>213959</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="H29" s="7">
         <v>339</v>
@@ -9614,13 +9572,13 @@
         <v>208640</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>564</v>
       </c>
       <c r="M29" s="7">
         <v>613</v>
@@ -9629,13 +9587,13 @@
         <v>422599</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9650,13 +9608,13 @@
         <v>266681</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" s="7">
         <v>433</v>
@@ -9665,13 +9623,13 @@
         <v>285325</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M30" s="7">
         <v>757</v>
@@ -9680,13 +9638,13 @@
         <v>552007</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9703,13 +9661,13 @@
         <v>150265</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="H31" s="7">
         <v>146</v>
@@ -9718,13 +9676,13 @@
         <v>112225</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="M31" s="7">
         <v>231</v>
@@ -9733,13 +9691,13 @@
         <v>262489</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>586</v>
+        <v>133</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9775,7 +9733,7 @@
         <v>19</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9790,7 +9748,7 @@
         <v>19</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9811,7 +9769,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>24</v>
+        <v>341</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -9820,13 +9778,13 @@
         <v>710</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -9835,13 +9793,13 @@
         <v>2412</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>168</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>403</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9856,13 +9814,13 @@
         <v>15955</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>590</v>
+        <v>359</v>
       </c>
       <c r="H34" s="7">
         <v>27</v>
@@ -9871,13 +9829,13 @@
         <v>23432</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>559</v>
+        <v>361</v>
       </c>
       <c r="M34" s="7">
         <v>43</v>
@@ -9886,13 +9844,13 @@
         <v>39387</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>229</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9907,13 +9865,13 @@
         <v>36164</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>366</v>
+        <v>578</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>351</v>
+        <v>579</v>
       </c>
       <c r="H35" s="7">
         <v>79</v>
@@ -9922,13 +9880,13 @@
         <v>47718</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>592</v>
+        <v>278</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>190</v>
+        <v>476</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="M35" s="7">
         <v>129</v>
@@ -9937,13 +9895,13 @@
         <v>83882</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>438</v>
+        <v>581</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>101</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9958,13 +9916,13 @@
         <v>47223</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>466</v>
+        <v>123</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>595</v>
+        <v>414</v>
       </c>
       <c r="H36" s="7">
         <v>66</v>
@@ -9973,13 +9931,13 @@
         <v>54174</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>40</v>
+        <v>449</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>312</v>
+        <v>417</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>596</v>
+        <v>119</v>
       </c>
       <c r="M36" s="7">
         <v>113</v>
@@ -9988,13 +9946,13 @@
         <v>101398</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>299</v>
+        <v>40</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>597</v>
+        <v>132</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>347</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10009,13 +9967,13 @@
         <v>11504</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>381</v>
+        <v>47</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>389</v>
+        <v>494</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -10024,13 +9982,13 @@
         <v>17470</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>238</v>
+        <v>583</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M37" s="7">
         <v>29</v>
@@ -10039,19 +9997,19 @@
         <v>28974</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>255</v>
+        <v>407</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7">
         <v>1453</v>
@@ -10060,13 +10018,13 @@
         <v>1147437</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="H38" s="7">
         <v>2229</v>
@@ -10075,13 +10033,13 @@
         <v>1438900</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="M38" s="7">
         <v>3682</v>
@@ -10090,13 +10048,13 @@
         <v>2586337</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10111,13 +10069,13 @@
         <v>1410250</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" s="7">
         <v>2568</v>
@@ -10126,13 +10084,13 @@
         <v>1694629</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M39" s="7">
         <v>4230</v>
@@ -10141,18 +10099,18 @@
         <v>3104879</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P41B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FF7B1D1-FDC8-436B-8BC4-C1AB2CC80290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96CCD037-3C28-426E-A63A-62078F27D92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0C2D89BF-0C56-433A-A4B9-17B25363C4DB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97B3441E-D024-4961-B3B7-B24231D2F604}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="599">
   <si>
     <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2007 (Tasa respuesta: 54,77%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>0,11%</t>
@@ -92,1707 +92,1728 @@
     <t>0,12%</t>
   </si>
   <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>Por su precio, no puede comprarlo</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>No conoce los métodos anticonceptivos</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>Por razones de salud</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>Se opone al uso de anticonceptivos</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>Quiere quedar embarazada</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>Está embarazada</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>No lo necesita</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2012 (Tasa respuesta: 55,14%)</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>Por su precio, no puede comprarlo</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>No conoce los métodos anticonceptivos</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>Por razones de salud</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2016 (Tasa respuesta: 56,01%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>Se opone al uso de anticonceptivos</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>Quiere quedar embarazada</t>
-  </si>
-  <si>
-    <t>0,38%</t>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>Está embarazada</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>No lo necesita</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2023 (Tasa respuesta: 48,54%)</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2012 (Tasa respuesta: 55,14%)</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2015 (Tasa respuesta: 56,01%)</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2023 (Tasa respuesta: 48,54%)</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
     <t>81,36%</t>
   </si>
   <si>
@@ -1803,9 +1824,6 @@
   </si>
   <si>
     <t>84,91%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
   </si>
   <si>
     <t>87,91%</t>
@@ -2229,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DBB9CF-E040-482C-BEAA-9156B6EC0AED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A42C9A5-73F7-4D0A-8246-7A204D8AAB76}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2572,13 +2590,13 @@
         <v>16000</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>28</v>
@@ -2587,19 +2605,19 @@
         <v>30889</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
@@ -2608,13 +2626,13 @@
         <v>2932</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2623,13 +2641,13 @@
         <v>3934</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -2638,10 +2656,10 @@
         <v>6866</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>52</v>
@@ -2677,10 +2695,10 @@
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2689,19 +2707,19 @@
         <v>8135</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="7">
         <v>776</v>
@@ -2710,13 +2728,13 @@
         <v>755904</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>1037</v>
@@ -2725,13 +2743,13 @@
         <v>1052437</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>1813</v>
@@ -2740,13 +2758,13 @@
         <v>1808341</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,13 +2779,13 @@
         <v>780520</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>1072</v>
@@ -2776,13 +2794,13 @@
         <v>1089874</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>1871</v>
@@ -2791,18 +2809,18 @@
         <v>1870394</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2820,7 +2838,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2829,13 +2847,13 @@
         <v>2041</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -2850,7 +2868,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,13 +2883,13 @@
         <v>1681</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2886,7 +2904,7 @@
         <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2901,7 +2919,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,7 +2940,7 @@
         <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2937,7 +2955,7 @@
         <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2970,10 +2988,10 @@
         <v>54</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -2982,13 +3000,13 @@
         <v>5958</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -2997,13 +3015,13 @@
         <v>10842</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3036,13 @@
         <v>16985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -3033,13 +3051,13 @@
         <v>10525</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -3048,19 +3066,19 @@
         <v>27510</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="7">
         <v>38</v>
@@ -3069,13 +3087,13 @@
         <v>37357</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -3084,13 +3102,13 @@
         <v>39770</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
         <v>76</v>
@@ -3099,13 +3117,13 @@
         <v>77127</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3138,13 @@
         <v>31282</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>34</v>
@@ -3135,13 +3153,13 @@
         <v>34704</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -3150,19 +3168,19 @@
         <v>65986</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="7">
         <v>551</v>
@@ -3171,13 +3189,13 @@
         <v>557742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>604</v>
@@ -3186,13 +3204,13 @@
         <v>619042</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>1155</v>
@@ -3201,13 +3219,13 @@
         <v>1176784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3240,13 @@
         <v>649930</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7">
         <v>693</v>
@@ -3237,13 +3255,13 @@
         <v>712040</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M21" s="7">
         <v>1333</v>
@@ -3252,18 +3270,18 @@
         <v>1361970</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3281,7 +3299,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -3290,13 +3308,13 @@
         <v>1583</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3305,13 +3323,13 @@
         <v>1583</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,7 +3350,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3347,7 +3365,7 @@
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3362,7 +3380,7 @@
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,7 +3401,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3398,7 +3416,7 @@
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3413,7 +3431,7 @@
         <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3446,13 @@
         <v>4552</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -3443,13 +3461,13 @@
         <v>2108</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -3458,13 +3476,13 @@
         <v>6660</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3497,13 @@
         <v>935</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3494,13 +3512,13 @@
         <v>4969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3509,19 +3527,19 @@
         <v>5904</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="7">
         <v>16</v>
@@ -3530,13 +3548,13 @@
         <v>13841</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -3545,13 +3563,13 @@
         <v>10094</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M27" s="7">
         <v>26</v>
@@ -3560,13 +3578,13 @@
         <v>23935</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,13 +3599,13 @@
         <v>16865</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -3596,13 +3614,13 @@
         <v>12467</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7">
         <v>29</v>
@@ -3611,19 +3629,19 @@
         <v>29331</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="7">
         <v>145</v>
@@ -3632,13 +3650,13 @@
         <v>154442</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>151</v>
@@ -3647,13 +3665,13 @@
         <v>156976</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>296</v>
@@ -3662,13 +3680,13 @@
         <v>311418</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3701,13 @@
         <v>190636</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H30" s="7">
         <v>179</v>
@@ -3698,13 +3716,13 @@
         <v>188196</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
         <v>362</v>
@@ -3713,13 +3731,13 @@
         <v>378832</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3754,13 @@
         <v>1069</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -3754,10 +3772,10 @@
         <v>20</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -3766,13 +3784,13 @@
         <v>5896</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,7 +3811,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3802,13 +3820,13 @@
         <v>1593</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3820,10 +3838,10 @@
         <v>23</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,7 +3892,7 @@
         <v>19</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,13 +3907,13 @@
         <v>15163</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -3904,13 +3922,13 @@
         <v>14638</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M34" s="7">
         <v>28</v>
@@ -3919,13 +3937,13 @@
         <v>29800</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3958,13 @@
         <v>32809</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H35" s="7">
         <v>28</v>
@@ -3955,13 +3973,13 @@
         <v>31494</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M35" s="7">
         <v>57</v>
@@ -3970,19 +3988,19 @@
         <v>64303</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>183</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="7">
         <v>57</v>
@@ -3991,13 +4009,13 @@
         <v>54130</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -4006,13 +4024,13 @@
         <v>53798</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M36" s="7">
         <v>109</v>
@@ -4021,13 +4039,13 @@
         <v>107928</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4060,13 @@
         <v>48147</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H37" s="7">
         <v>53</v>
@@ -4057,13 +4075,13 @@
         <v>55306</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M37" s="7">
         <v>100</v>
@@ -4072,19 +4090,19 @@
         <v>103452</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7">
         <v>1472</v>
@@ -4093,13 +4111,13 @@
         <v>1468087</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H38" s="7">
         <v>1792</v>
@@ -4108,13 +4126,13 @@
         <v>1828454</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M38" s="7">
         <v>3264</v>
@@ -4123,13 +4141,13 @@
         <v>3296542</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4162,13 @@
         <v>1621085</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" s="7">
         <v>1944</v>
@@ -4159,13 +4177,13 @@
         <v>1990110</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M39" s="7">
         <v>3566</v>
@@ -4174,18 +4192,18 @@
         <v>3611195</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4204,7 +4222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C014FAFC-6438-45C0-A324-2E408E573389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DE9B94-4E45-46BB-BF94-62F311B83DBC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4221,7 +4239,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4334,7 +4352,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4349,7 +4367,7 @@
         <v>19</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4385,7 +4403,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -4400,7 +4418,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4409,13 +4427,13 @@
         <v>2909</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,7 +4454,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4451,7 +4469,7 @@
         <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4484,10 +4502,10 @@
         <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -4496,13 +4514,13 @@
         <v>18544</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -4511,13 +4529,13 @@
         <v>37619</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4550,13 @@
         <v>14904</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4547,13 +4565,13 @@
         <v>12895</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -4562,19 +4580,19 @@
         <v>27799</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7">
         <v>13</v>
@@ -4583,13 +4601,13 @@
         <v>13289</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -4598,13 +4616,13 @@
         <v>10065</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M9" s="7">
         <v>23</v>
@@ -4613,13 +4631,13 @@
         <v>23354</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>237</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,13 +4652,13 @@
         <v>2194</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4649,13 +4667,13 @@
         <v>8461</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4664,19 +4682,19 @@
         <v>10655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="7">
         <v>646</v>
@@ -4685,13 +4703,13 @@
         <v>702366</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H11" s="7">
         <v>979</v>
@@ -4700,13 +4718,13 @@
         <v>1051283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M11" s="7">
         <v>1625</v>
@@ -4715,13 +4733,13 @@
         <v>1753649</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4754,13 @@
         <v>752741</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>1027</v>
@@ -4751,13 +4769,13 @@
         <v>1103243</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>1720</v>
@@ -4766,18 +4784,18 @@
         <v>1855984</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4789,13 +4807,13 @@
         <v>3019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4804,13 +4822,13 @@
         <v>4972</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -4819,13 +4837,13 @@
         <v>7991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,10 +4861,10 @@
         <v>54</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4861,7 +4879,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -4870,13 +4888,13 @@
         <v>7350</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>252</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,7 +4915,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4921,13 +4939,13 @@
         <v>897</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4960,13 @@
         <v>42612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>62</v>
@@ -4957,13 +4975,13 @@
         <v>69399</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M16" s="7">
         <v>103</v>
@@ -4972,13 +4990,13 @@
         <v>112010</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +5011,13 @@
         <v>25962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -5008,13 +5026,13 @@
         <v>11170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>180</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>33</v>
@@ -5023,19 +5041,19 @@
         <v>37132</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="7">
         <v>38</v>
@@ -5044,13 +5062,13 @@
         <v>37282</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>269</v>
+        <v>99</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="H18" s="7">
         <v>48</v>
@@ -5059,13 +5077,13 @@
         <v>51552</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -5074,13 +5092,13 @@
         <v>88834</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>275</v>
+        <v>147</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5113,13 @@
         <v>13480</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -5110,13 +5128,13 @@
         <v>35007</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -5125,19 +5143,19 @@
         <v>48486</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="7">
         <v>635</v>
@@ -5146,13 +5164,13 @@
         <v>689357</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
         <v>651</v>
@@ -5161,13 +5179,13 @@
         <v>707441</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>1286</v>
@@ -5176,13 +5194,13 @@
         <v>1396798</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5215,13 @@
         <v>818710</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7">
         <v>811</v>
@@ -5212,13 +5230,13 @@
         <v>880788</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M21" s="7">
         <v>1571</v>
@@ -5227,18 +5245,18 @@
         <v>1699498</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5250,13 +5268,13 @@
         <v>930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -5265,13 +5283,13 @@
         <v>1809</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>295</v>
+        <v>49</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>296</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -5280,13 +5298,13 @@
         <v>2739</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,7 +5325,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>298</v>
+        <v>56</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5322,7 +5340,7 @@
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -5358,7 +5376,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>298</v>
+        <v>56</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5373,7 +5391,7 @@
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5403,13 +5421,13 @@
         <v>4970</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>89</v>
+        <v>295</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -5418,13 +5436,13 @@
         <v>16033</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -5433,13 +5451,13 @@
         <v>21004</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>95</v>
+        <v>301</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5472,13 @@
         <v>7914</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5469,13 +5487,13 @@
         <v>5961</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>308</v>
+        <v>267</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -5484,19 +5502,19 @@
         <v>13874</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>92</v>
+        <v>307</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="7">
         <v>8</v>
@@ -5505,13 +5523,13 @@
         <v>9584</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>313</v>
+        <v>109</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -5520,13 +5538,13 @@
         <v>13664</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M27" s="7">
         <v>21</v>
@@ -5535,13 +5553,13 @@
         <v>23248</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>320</v>
+        <v>99</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5574,13 @@
         <v>4883</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5571,13 +5589,13 @@
         <v>17039</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M28" s="7">
         <v>21</v>
@@ -5586,19 +5604,19 @@
         <v>21922</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="7">
         <v>108</v>
@@ -5607,13 +5625,13 @@
         <v>123743</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>108</v>
@@ -5622,13 +5640,13 @@
         <v>124825</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>216</v>
@@ -5637,13 +5655,13 @@
         <v>248567</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5676,13 @@
         <v>152023</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H30" s="7">
         <v>157</v>
@@ -5673,13 +5691,13 @@
         <v>179331</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
         <v>291</v>
@@ -5688,13 +5706,13 @@
         <v>331354</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5729,13 @@
         <v>3949</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -5726,13 +5744,13 @@
         <v>6781</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -5741,13 +5759,13 @@
         <v>10730</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>234</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5780,13 @@
         <v>7015</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>26</v>
+        <v>337</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -5780,10 +5798,10 @@
         <v>21</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -5792,13 +5810,13 @@
         <v>10259</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>339</v>
+        <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>74</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5831,13 @@
         <v>897</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>72</v>
+        <v>339</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -5843,13 +5861,13 @@
         <v>897</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5882,13 @@
         <v>66656</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>342</v>
+        <v>108</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>102</v>
+        <v>341</v>
       </c>
       <c r="H34" s="7">
         <v>94</v>
@@ -5879,13 +5897,13 @@
         <v>103976</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M34" s="7">
         <v>159</v>
@@ -5894,13 +5912,13 @@
         <v>170632</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5933,13 @@
         <v>48779</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H35" s="7">
         <v>26</v>
@@ -5930,13 +5948,13 @@
         <v>30025</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>233</v>
+        <v>351</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="M35" s="7">
         <v>67</v>
@@ -5945,19 +5963,19 @@
         <v>78805</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="7">
         <v>59</v>
@@ -5966,13 +5984,13 @@
         <v>60155</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H36" s="7">
         <v>71</v>
@@ -5981,13 +5999,13 @@
         <v>75281</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>355</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="M36" s="7">
         <v>130</v>
@@ -5996,13 +6014,13 @@
         <v>135435</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>143</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6035,13 @@
         <v>20557</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H37" s="7">
         <v>57</v>
@@ -6032,13 +6050,13 @@
         <v>60507</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M37" s="7">
         <v>78</v>
@@ -6047,19 +6065,19 @@
         <v>81063</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7">
         <v>1389</v>
@@ -6068,13 +6086,13 @@
         <v>1515466</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H38" s="7">
         <v>1738</v>
@@ -6083,13 +6101,13 @@
         <v>1883548</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M38" s="7">
         <v>3127</v>
@@ -6098,13 +6116,13 @@
         <v>3399014</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6137,13 @@
         <v>1723474</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" s="7">
         <v>1995</v>
@@ -6134,13 +6152,13 @@
         <v>2163362</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M39" s="7">
         <v>3582</v>
@@ -6149,18 +6167,18 @@
         <v>3886836</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6179,7 +6197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392B9B83-B0DB-4DE2-8F5D-0299D7A58B53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F4C46E-2E28-4334-BD33-918A7A5DBCEA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6196,7 +6214,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6309,7 +6327,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>375</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6324,7 +6342,7 @@
         <v>19</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>376</v>
+        <v>29</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6360,7 +6378,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6375,7 +6393,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>374</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6390,7 +6408,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +6429,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>375</v>
+        <v>55</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6426,7 +6444,7 @@
         <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>376</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6456,13 +6474,13 @@
         <v>2860</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>377</v>
+        <v>90</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -6471,13 +6489,13 @@
         <v>2875</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>375</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6486,13 +6504,13 @@
         <v>5736</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>58</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,10 +6528,10 @@
         <v>378</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>130</v>
+        <v>379</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>280</v>
+        <v>380</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6522,13 +6540,13 @@
         <v>7023</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>380</v>
+        <v>35</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>381</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -6537,19 +6555,19 @@
         <v>14748</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>295</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7">
         <v>2</v>
@@ -6558,13 +6576,13 @@
         <v>1945</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>164</v>
+        <v>375</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -6573,13 +6591,13 @@
         <v>6619</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -6588,13 +6606,13 @@
         <v>8564</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,13 +6627,13 @@
         <v>1865</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>375</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -6624,13 +6642,13 @@
         <v>6137</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -6642,16 +6660,16 @@
         <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>387</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="7">
         <v>589</v>
@@ -6660,13 +6678,13 @@
         <v>572326</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H11" s="7">
         <v>738</v>
@@ -6675,13 +6693,13 @@
         <v>841908</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M11" s="7">
         <v>1327</v>
@@ -6690,13 +6708,13 @@
         <v>1414235</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,13 +6729,13 @@
         <v>586721</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>762</v>
@@ -6726,13 +6744,13 @@
         <v>866630</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>1364</v>
@@ -6741,18 +6759,18 @@
         <v>1453351</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -6770,7 +6788,7 @@
         <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>339</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6785,7 +6803,7 @@
         <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -6815,13 +6833,13 @@
         <v>4277</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>39</v>
+        <v>397</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -6830,13 +6848,13 @@
         <v>3037</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -6845,13 +6863,13 @@
         <v>7314</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,7 +6905,7 @@
         <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>396</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -6896,7 +6914,7 @@
         <v>974</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>12</v>
@@ -6917,7 +6935,7 @@
         <v>21957</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>398</v>
+        <v>196</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>399</v>
@@ -6932,13 +6950,13 @@
         <v>28255</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -6953,7 +6971,7 @@
         <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,13 +6986,13 @@
         <v>16379</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -6983,13 +7001,13 @@
         <v>16518</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>385</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -6998,19 +7016,19 @@
         <v>32897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="7">
         <v>37</v>
@@ -7019,13 +7037,13 @@
         <v>41327</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>30</v>
@@ -7034,13 +7052,13 @@
         <v>29424</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -7049,10 +7067,10 @@
         <v>70751</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>355</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>414</v>
@@ -7070,13 +7088,13 @@
         <v>7877</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -7085,13 +7103,13 @@
         <v>27087</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>230</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>189</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -7100,19 +7118,19 @@
         <v>34964</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>417</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="7">
         <v>843</v>
@@ -7121,13 +7139,13 @@
         <v>901894</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>851</v>
@@ -7136,13 +7154,13 @@
         <v>933453</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>1694</v>
@@ -7151,13 +7169,13 @@
         <v>1835347</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7172,13 +7190,13 @@
         <v>994685</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7">
         <v>955</v>
@@ -7187,13 +7205,13 @@
         <v>1037775</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M21" s="7">
         <v>1881</v>
@@ -7202,18 +7220,18 @@
         <v>2032460</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7231,7 +7249,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -7246,7 +7264,7 @@
         <v>19</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>398</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7261,7 +7279,7 @@
         <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,7 +7300,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -7297,7 +7315,7 @@
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>398</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -7312,7 +7330,7 @@
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7333,7 +7351,7 @@
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7348,7 +7366,7 @@
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>49</v>
+        <v>398</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7363,7 +7381,7 @@
         <v>19</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,13 +7396,13 @@
         <v>6311</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>428</v>
+        <v>92</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -7396,7 +7414,7 @@
         <v>429</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>430</v>
@@ -7414,7 +7432,7 @@
         <v>432</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>433</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,13 +7447,13 @@
         <v>4970</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>301</v>
+        <v>435</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -7444,7 +7462,7 @@
         <v>1966</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>435</v>
+        <v>42</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
@@ -7459,19 +7477,19 @@
         <v>6937</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>268</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="7">
         <v>11</v>
@@ -7480,13 +7498,13 @@
         <v>11490</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>296</v>
+        <v>439</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H27" s="7">
         <v>15</v>
@@ -7495,13 +7513,13 @@
         <v>15454</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M27" s="7">
         <v>26</v>
@@ -7510,13 +7528,13 @@
         <v>26944</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,13 +7549,13 @@
         <v>4158</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>446</v>
+        <v>246</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -7546,10 +7564,10 @@
         <v>12629</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>449</v>
+        <v>195</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>450</v>
@@ -7561,10 +7579,10 @@
         <v>16788</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>451</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>451</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>452</v>
@@ -7573,7 +7591,7 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="7">
         <v>182</v>
@@ -7633,13 +7651,13 @@
         <v>227114</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H30" s="7">
         <v>212</v>
@@ -7648,13 +7666,13 @@
         <v>230542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
         <v>418</v>
@@ -7663,13 +7681,13 @@
         <v>457656</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,7 +7740,7 @@
         <v>19</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,10 +7758,10 @@
         <v>20</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>294</v>
+        <v>130</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -7758,7 +7776,7 @@
         <v>23</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="M32" s="7">
         <v>9</v>
@@ -7770,10 +7788,10 @@
         <v>20</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>76</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7788,13 +7806,13 @@
         <v>974</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -7818,13 +7836,13 @@
         <v>974</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,13 +7857,13 @@
         <v>31128</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="H34" s="7">
         <v>46</v>
@@ -7857,7 +7875,7 @@
         <v>462</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>463</v>
@@ -7872,7 +7890,7 @@
         <v>464</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>465</v>
@@ -7890,13 +7908,13 @@
         <v>29073</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>172</v>
+        <v>466</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>387</v>
+        <v>467</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H35" s="7">
         <v>24</v>
@@ -7905,13 +7923,13 @@
         <v>25508</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>128</v>
+        <v>416</v>
       </c>
       <c r="M35" s="7">
         <v>49</v>
@@ -7920,19 +7938,19 @@
         <v>54581</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>176</v>
+        <v>469</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>467</v>
+        <v>234</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>359</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="7">
         <v>50</v>
@@ -7941,13 +7959,13 @@
         <v>54762</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>468</v>
+        <v>266</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>470</v>
+        <v>275</v>
       </c>
       <c r="H36" s="7">
         <v>51</v>
@@ -7971,10 +7989,10 @@
         <v>106259</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>474</v>
@@ -7992,13 +8010,13 @@
         <v>13900</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>78</v>
+        <v>336</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>475</v>
+        <v>90</v>
       </c>
       <c r="H37" s="7">
         <v>47</v>
@@ -8007,13 +8025,13 @@
         <v>45854</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>476</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
       <c r="M37" s="7">
         <v>59</v>
@@ -8022,19 +8040,19 @@
         <v>59755</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>268</v>
+        <v>437</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>413</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7">
         <v>1614</v>
@@ -8043,13 +8061,13 @@
         <v>1674405</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="H38" s="7">
         <v>1756</v>
@@ -8058,7 +8076,7 @@
         <v>1959335</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>480</v>
@@ -8094,13 +8112,13 @@
         <v>1808520</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" s="7">
         <v>1929</v>
@@ -8109,13 +8127,13 @@
         <v>2134947</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M39" s="7">
         <v>3663</v>
@@ -8124,18 +8142,18 @@
         <v>3943467</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -8154,7 +8172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303E4C91-AACA-442C-9D6B-6E605F21B051}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3724FEDD-D866-4406-AA57-2036C5FC11DF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8278,13 +8296,13 @@
         <v>7494</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>42</v>
+        <v>183</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -8293,13 +8311,13 @@
         <v>17985</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -8308,13 +8326,13 @@
         <v>25479</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>405</v>
+        <v>490</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>489</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,7 +8353,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8350,7 +8368,7 @@
         <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8386,7 +8404,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8401,7 +8419,7 @@
         <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -8431,13 +8449,13 @@
         <v>1403</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -8446,13 +8464,13 @@
         <v>1653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>490</v>
+        <v>397</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -8461,13 +8479,13 @@
         <v>3057</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>410</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8482,13 +8500,13 @@
         <v>3414</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>491</v>
+        <v>340</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
@@ -8500,10 +8518,10 @@
         <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
@@ -8512,19 +8530,19 @@
         <v>6898</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>376</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>493</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="7">
         <v>6</v>
@@ -8533,13 +8551,13 @@
         <v>5290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -8548,13 +8566,13 @@
         <v>2468</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -8563,13 +8581,13 @@
         <v>7759</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>48</v>
+        <v>428</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8590,7 +8608,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -8599,13 +8617,13 @@
         <v>1021</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -8614,19 +8632,19 @@
         <v>1021</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="7">
         <v>432</v>
@@ -8635,13 +8653,13 @@
         <v>307156</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="H11" s="7">
         <v>778</v>
@@ -8650,13 +8668,13 @@
         <v>436150</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>500</v>
+        <v>391</v>
       </c>
       <c r="M11" s="7">
         <v>1210</v>
@@ -8665,13 +8683,13 @@
         <v>743305</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8686,13 +8704,13 @@
         <v>324757</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>821</v>
@@ -8701,13 +8719,13 @@
         <v>462761</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>1276</v>
@@ -8716,18 +8734,18 @@
         <v>787517</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -8739,13 +8757,13 @@
         <v>115905</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -8754,13 +8772,13 @@
         <v>66303</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>507</v>
+        <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -8769,13 +8787,13 @@
         <v>182208</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>507</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8796,7 +8814,7 @@
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8847,7 +8865,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -8856,13 +8874,13 @@
         <v>710</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -8877,7 +8895,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8892,13 +8910,13 @@
         <v>11414</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>55</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>512</v>
+        <v>122</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -8907,13 +8925,13 @@
         <v>9950</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -8922,13 +8940,13 @@
         <v>21365</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>513</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8943,13 +8961,13 @@
         <v>23592</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -8958,13 +8976,13 @@
         <v>32989</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>353</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>476</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -8973,19 +8991,19 @@
         <v>56580</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>512</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="7">
         <v>29</v>
@@ -8994,13 +9012,13 @@
         <v>31092</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>261</v>
+        <v>515</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
@@ -9009,13 +9027,13 @@
         <v>31980</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>270</v>
+        <v>438</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>306</v>
+        <v>516</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -9024,13 +9042,13 @@
         <v>63073</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9045,13 +9063,13 @@
         <v>9683</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -9060,13 +9078,13 @@
         <v>10500</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>182</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>283</v>
+        <v>522</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -9075,19 +9093,19 @@
         <v>20183</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>36</v>
+        <v>386</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="7">
         <v>747</v>
@@ -9147,13 +9165,13 @@
         <v>818812</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7">
         <v>1314</v>
@@ -9162,13 +9180,13 @@
         <v>946543</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M21" s="7">
         <v>2197</v>
@@ -9177,18 +9195,18 @@
         <v>1765355</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9257,7 +9275,7 @@
         <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -9272,7 +9290,7 @@
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -9287,7 +9305,7 @@
         <v>19</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>376</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9302,13 +9320,13 @@
         <v>899</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>404</v>
+        <v>541</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -9323,7 +9341,7 @@
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -9332,13 +9350,13 @@
         <v>899</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>237</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9353,13 +9371,13 @@
         <v>3137</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>375</v>
+        <v>55</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -9368,13 +9386,13 @@
         <v>11829</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -9383,10 +9401,10 @@
         <v>14966</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>543</v>
+        <v>405</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>544</v>
@@ -9404,13 +9422,13 @@
         <v>9159</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>103</v>
+        <v>545</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>385</v>
+        <v>84</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -9419,13 +9437,13 @@
         <v>11245</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>195</v>
+        <v>547</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
@@ -9434,19 +9452,19 @@
         <v>20404</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" s="7">
         <v>12</v>
@@ -9455,13 +9473,13 @@
         <v>10841</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>95</v>
+        <v>442</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H27" s="7">
         <v>25</v>
@@ -9470,13 +9488,13 @@
         <v>19726</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M27" s="7">
         <v>37</v>
@@ -9485,13 +9503,13 @@
         <v>30566</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>555</v>
+        <v>448</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9506,13 +9524,13 @@
         <v>1821</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>267</v>
+        <v>558</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -9521,13 +9539,13 @@
         <v>5949</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
@@ -9536,19 +9554,19 @@
         <v>7770</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>81</v>
+        <v>560</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>225</v>
+        <v>434</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="7">
         <v>274</v>
@@ -9557,13 +9575,13 @@
         <v>213959</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H29" s="7">
         <v>339</v>
@@ -9572,13 +9590,13 @@
         <v>208640</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M29" s="7">
         <v>613</v>
@@ -9587,13 +9605,13 @@
         <v>422599</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9608,13 +9626,13 @@
         <v>266681</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H30" s="7">
         <v>433</v>
@@ -9623,13 +9641,13 @@
         <v>285325</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M30" s="7">
         <v>757</v>
@@ -9638,13 +9656,13 @@
         <v>552007</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9661,13 +9679,13 @@
         <v>150265</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H31" s="7">
         <v>146</v>
@@ -9676,13 +9694,13 @@
         <v>112225</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>571</v>
+        <v>435</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>572</v>
+        <v>258</v>
       </c>
       <c r="M31" s="7">
         <v>231</v>
@@ -9691,13 +9709,13 @@
         <v>262489</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>133</v>
+        <v>575</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9733,7 +9751,7 @@
         <v>19</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -9748,7 +9766,7 @@
         <v>19</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9769,7 +9787,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -9778,13 +9796,13 @@
         <v>710</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -9793,13 +9811,13 @@
         <v>2412</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9814,13 +9832,13 @@
         <v>15955</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>309</v>
+        <v>578</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="H34" s="7">
         <v>27</v>
@@ -9829,13 +9847,13 @@
         <v>23432</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>176</v>
+        <v>469</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>435</v>
+        <v>42</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>361</v>
+        <v>580</v>
       </c>
       <c r="M34" s="7">
         <v>43</v>
@@ -9844,13 +9862,13 @@
         <v>39387</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9865,13 +9883,13 @@
         <v>36164</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>235</v>
+        <v>583</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="H35" s="7">
         <v>79</v>
@@ -9880,13 +9898,13 @@
         <v>47718</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>476</v>
+        <v>263</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="M35" s="7">
         <v>129</v>
@@ -9895,19 +9913,19 @@
         <v>83882</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>581</v>
+        <v>225</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>400</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="7">
         <v>47</v>
@@ -9916,13 +9934,13 @@
         <v>47223</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>414</v>
+        <v>587</v>
       </c>
       <c r="H36" s="7">
         <v>66</v>
@@ -9931,13 +9949,13 @@
         <v>54174</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>449</v>
+        <v>588</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>417</v>
+        <v>512</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>119</v>
+        <v>589</v>
       </c>
       <c r="M36" s="7">
         <v>113</v>
@@ -9946,13 +9964,13 @@
         <v>101398</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>40</v>
+        <v>294</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9967,13 +9985,13 @@
         <v>11504</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>237</v>
+        <v>374</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -9982,13 +10000,13 @@
         <v>17470</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>583</v>
+        <v>221</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>79</v>
+        <v>590</v>
       </c>
       <c r="M37" s="7">
         <v>29</v>
@@ -9997,19 +10015,19 @@
         <v>28974</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>214</v>
+        <v>135</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>298</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7">
         <v>1453</v>
@@ -10018,13 +10036,13 @@
         <v>1147437</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="H38" s="7">
         <v>2229</v>
@@ -10033,13 +10051,13 @@
         <v>1438900</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>588</v>
+        <v>286</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="M38" s="7">
         <v>3682</v>
@@ -10048,13 +10066,13 @@
         <v>2586337</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10069,13 +10087,13 @@
         <v>1410250</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" s="7">
         <v>2568</v>
@@ -10084,13 +10102,13 @@
         <v>1694629</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M39" s="7">
         <v>4230</v>
@@ -10099,18 +10117,18 @@
         <v>3104879</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P41B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D62909AB-CD1B-4D69-BEC0-386BD6A944EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9680E269-5848-42E2-BC24-1C257A18D7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6D68B438-4E01-42F6-BD74-EC7120D9DA05}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9394C28D-0517-4CAF-9B70-3A7645355FDB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="595">
   <si>
     <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2007 (Tasa respuesta: 54,77%)</t>
   </si>
@@ -1520,346 +1520,310 @@
     <t>Población según la razón por la cual no utiliza con su pareja métodos anticonceptivos en 2023 (Tasa respuesta: 48,54%)</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>0,99%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACB0139-1122-470E-AA04-56C6D69D3437}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194DDAAC-EB7E-49C8-B0D3-5FBF576B3AF3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4246,7 +4210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6C7D2B-D608-4784-A1FD-16A5CA2BC4E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604D3782-5422-48CB-B209-2289562D5CE1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6221,7 +6185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A852D164-7909-4137-8C60-8555C62F28FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCC02C2-CEE0-4375-B977-13904F0C2EBD}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6714,7 +6678,7 @@
         <v>738</v>
       </c>
       <c r="I11" s="7">
-        <v>841908</v>
+        <v>841907</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>397</v>
@@ -6765,7 +6729,7 @@
         <v>762</v>
       </c>
       <c r="I12" s="7">
-        <v>866630</v>
+        <v>866629</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>68</v>
@@ -8196,7 +8160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9B492-F3D4-4F18-A55B-31A59106DC34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1682911-EBF5-47C5-AA21-00837D09E335}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8317,46 +8281,46 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>7494</v>
+        <v>7243</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>473</v>
+        <v>45</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>380</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>493</v>
+        <v>307</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>17985</v>
+        <v>16754</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>476</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>494</v>
+        <v>357</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>25479</v>
+        <v>23996</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>496</v>
+        <v>309</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>497</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8470,46 +8434,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>498</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1653</v>
+        <v>1456</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>386</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>3057</v>
+        <v>2856</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>381</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8521,46 +8485,46 @@
         <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>3414</v>
+        <v>3504</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>386</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>499</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>3484</v>
+        <v>3387</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>385</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>6898</v>
+        <v>6891</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>380</v>
+        <v>227</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>474</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8572,46 +8536,46 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>5290</v>
+        <v>5413</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>392</v>
+        <v>229</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>500</v>
+        <v>321</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>2468</v>
+        <v>2334</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>7759</v>
+        <v>7747</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>501</v>
+        <v>119</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>78</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8638,31 +8602,31 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1021</v>
+        <v>852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>253</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>1021</v>
+        <v>852</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8674,46 +8638,46 @@
         <v>432</v>
       </c>
       <c r="D11" s="7">
-        <v>307156</v>
+        <v>287754</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="H11" s="7">
         <v>778</v>
       </c>
       <c r="I11" s="7">
-        <v>436149</v>
+        <v>393640</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="M11" s="7">
         <v>1210</v>
       </c>
       <c r="N11" s="7">
-        <v>743305</v>
+        <v>681392</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8725,7 +8689,7 @@
         <v>455</v>
       </c>
       <c r="D12" s="7">
-        <v>324757</v>
+        <v>305314</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>68</v>
@@ -8740,7 +8704,7 @@
         <v>821</v>
       </c>
       <c r="I12" s="7">
-        <v>462760</v>
+        <v>418422</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>68</v>
@@ -8755,7 +8719,7 @@
         <v>1276</v>
       </c>
       <c r="N12" s="7">
-        <v>787517</v>
+        <v>723735</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>68</v>
@@ -8778,46 +8742,46 @@
         <v>56</v>
       </c>
       <c r="D13" s="7">
-        <v>115905</v>
+        <v>308501</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
       </c>
       <c r="I13" s="7">
-        <v>66303</v>
+        <v>62674</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>515</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
       </c>
       <c r="N13" s="7">
-        <v>182208</v>
+        <v>371175</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8880,46 +8844,46 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>803</v>
+        <v>776</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>710</v>
+        <v>663</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>167</v>
+        <v>511</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>1514</v>
+        <v>1440</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>378</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8931,46 +8895,46 @@
         <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>11414</v>
+        <v>11156</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>177</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>215</v>
+        <v>512</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>9950</v>
+        <v>8904</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>475</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>128</v>
+        <v>513</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>514</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
       </c>
       <c r="N16" s="7">
-        <v>21365</v>
+        <v>20060</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>515</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>409</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8982,46 +8946,46 @@
         <v>32</v>
       </c>
       <c r="D17" s="7">
-        <v>23592</v>
+        <v>25299</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>521</v>
+        <v>315</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>522</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
       </c>
       <c r="I17" s="7">
-        <v>32989</v>
+        <v>31839</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>356</v>
+        <v>516</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>480</v>
+        <v>172</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>346</v>
+        <v>517</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
       </c>
       <c r="N17" s="7">
-        <v>56580</v>
+        <v>57138</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>469</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9033,46 +8997,46 @@
         <v>29</v>
       </c>
       <c r="D18" s="7">
-        <v>31092</v>
+        <v>31731</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>520</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>129</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
       <c r="H18" s="7">
         <v>38</v>
       </c>
       <c r="I18" s="7">
-        <v>31980</v>
+        <v>29817</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>526</v>
+        <v>55</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
       </c>
       <c r="N18" s="7">
-        <v>63073</v>
+        <v>61548</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>357</v>
+        <v>524</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9084,46 +9048,46 @@
         <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>9683</v>
+        <v>9059</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>455</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>10500</v>
+        <v>10087</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>47</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>438</v>
+        <v>526</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>20183</v>
+        <v>19146</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9135,46 +9099,46 @@
         <v>747</v>
       </c>
       <c r="D20" s="7">
-        <v>626322</v>
+        <v>592311</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="H20" s="7">
         <v>1112</v>
       </c>
       <c r="I20" s="7">
-        <v>794110</v>
+        <v>836529</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="M20" s="7">
         <v>1859</v>
       </c>
       <c r="N20" s="7">
-        <v>1420433</v>
+        <v>1428840</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9186,7 +9150,7 @@
         <v>883</v>
       </c>
       <c r="D21" s="7">
-        <v>818812</v>
+        <v>978834</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>68</v>
@@ -9201,7 +9165,7 @@
         <v>1314</v>
       </c>
       <c r="I21" s="7">
-        <v>946543</v>
+        <v>980512</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>68</v>
@@ -9216,7 +9180,7 @@
         <v>2197</v>
       </c>
       <c r="N21" s="7">
-        <v>1765355</v>
+        <v>1959346</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>68</v>
@@ -9239,46 +9203,46 @@
         <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>26866</v>
+        <v>31182</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="H22" s="7">
         <v>33</v>
       </c>
       <c r="I22" s="7">
-        <v>27936</v>
+        <v>26624</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
       </c>
       <c r="N22" s="7">
-        <v>54803</v>
+        <v>57807</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9314,7 +9278,7 @@
         <v>19</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -9341,16 +9305,16 @@
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>899</v>
+        <v>861</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>548</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>83</v>
+        <v>297</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -9365,13 +9329,13 @@
         <v>19</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>547</v>
+        <v>511</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
       </c>
       <c r="N24" s="7">
-        <v>899</v>
+        <v>861</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>51</v>
@@ -9380,7 +9344,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>501</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9392,46 +9356,46 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>3137</v>
+        <v>3125</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>36</v>
+        <v>298</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>377</v>
+        <v>70</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>224</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
       </c>
       <c r="I25" s="7">
-        <v>11829</v>
+        <v>10911</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>414</v>
+        <v>545</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>470</v>
+        <v>524</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
       </c>
       <c r="N25" s="7">
-        <v>14966</v>
+        <v>14037</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>550</v>
+        <v>442</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9443,46 +9407,46 @@
         <v>10</v>
       </c>
       <c r="D26" s="7">
-        <v>9159</v>
+        <v>9036</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>442</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
       </c>
       <c r="I26" s="7">
-        <v>11245</v>
+        <v>10797</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="M26" s="7">
         <v>28</v>
       </c>
       <c r="N26" s="7">
-        <v>20404</v>
+        <v>19833</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>556</v>
+        <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>42</v>
+        <v>466</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9494,46 +9458,46 @@
         <v>12</v>
       </c>
       <c r="D27" s="7">
-        <v>10841</v>
+        <v>10447</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>559</v>
+        <v>480</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>560</v>
+        <v>325</v>
       </c>
       <c r="H27" s="7">
         <v>25</v>
       </c>
       <c r="I27" s="7">
-        <v>19726</v>
+        <v>18969</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>561</v>
+        <v>433</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>563</v>
+        <v>447</v>
       </c>
       <c r="M27" s="7">
         <v>37</v>
       </c>
       <c r="N27" s="7">
-        <v>30566</v>
+        <v>29416</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9545,46 +9509,46 @@
         <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>1821</v>
+        <v>1803</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>567</v>
+        <v>342</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
       </c>
       <c r="I28" s="7">
-        <v>5949</v>
+        <v>5564</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>365</v>
+        <v>558</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>440</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>568</v>
+        <v>346</v>
       </c>
       <c r="M28" s="7">
         <v>9</v>
       </c>
       <c r="N28" s="7">
-        <v>7770</v>
+        <v>7366</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>571</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9596,46 +9560,46 @@
         <v>274</v>
       </c>
       <c r="D29" s="7">
-        <v>213959</v>
+        <v>200902</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="H29" s="7">
         <v>339</v>
       </c>
       <c r="I29" s="7">
-        <v>208640</v>
+        <v>191536</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>566</v>
       </c>
       <c r="M29" s="7">
         <v>613</v>
       </c>
       <c r="N29" s="7">
-        <v>422599</v>
+        <v>392437</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9647,7 +9611,7 @@
         <v>324</v>
       </c>
       <c r="D30" s="7">
-        <v>266681</v>
+        <v>257356</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>68</v>
@@ -9662,7 +9626,7 @@
         <v>433</v>
       </c>
       <c r="I30" s="7">
-        <v>285325</v>
+        <v>264402</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>68</v>
@@ -9677,7 +9641,7 @@
         <v>757</v>
       </c>
       <c r="N30" s="7">
-        <v>552007</v>
+        <v>521757</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>68</v>
@@ -9700,46 +9664,46 @@
         <v>85</v>
       </c>
       <c r="D31" s="7">
-        <v>150265</v>
+        <v>346926</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="H31" s="7">
         <v>146</v>
       </c>
       <c r="I31" s="7">
-        <v>112225</v>
+        <v>106052</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>147</v>
+        <v>573</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>584</v>
+        <v>264</v>
       </c>
       <c r="M31" s="7">
         <v>231</v>
       </c>
       <c r="N31" s="7">
-        <v>262489</v>
+        <v>452978</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9802,46 +9766,46 @@
         <v>2</v>
       </c>
       <c r="D33" s="7">
-        <v>1702</v>
+        <v>1637</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>24</v>
+        <v>381</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
       </c>
       <c r="I33" s="7">
-        <v>710</v>
+        <v>663</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>20</v>
+        <v>252</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
       </c>
       <c r="N33" s="7">
-        <v>2412</v>
+        <v>2300</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>168</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>403</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9853,46 +9817,46 @@
         <v>16</v>
       </c>
       <c r="D34" s="7">
-        <v>15955</v>
+        <v>15682</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>44</v>
+        <v>515</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>589</v>
+        <v>73</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>590</v>
+        <v>468</v>
       </c>
       <c r="H34" s="7">
         <v>27</v>
       </c>
       <c r="I34" s="7">
-        <v>23432</v>
+        <v>21271</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>440</v>
+        <v>54</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>559</v>
+        <v>266</v>
       </c>
       <c r="M34" s="7">
         <v>43</v>
       </c>
       <c r="N34" s="7">
-        <v>39387</v>
+        <v>36953</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>268</v>
+        <v>481</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>229</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9904,46 +9868,46 @@
         <v>50</v>
       </c>
       <c r="D35" s="7">
-        <v>36164</v>
+        <v>37839</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>366</v>
+        <v>580</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>125</v>
+        <v>559</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>351</v>
+        <v>216</v>
       </c>
       <c r="H35" s="7">
         <v>79</v>
       </c>
       <c r="I35" s="7">
-        <v>47718</v>
+        <v>46023</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>592</v>
+        <v>296</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M35" s="7">
         <v>129</v>
       </c>
       <c r="N35" s="7">
-        <v>83882</v>
+        <v>83862</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>189</v>
+        <v>582</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9955,46 +9919,46 @@
         <v>47</v>
       </c>
       <c r="D36" s="7">
-        <v>47223</v>
+        <v>47591</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>466</v>
+        <v>584</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>595</v>
+        <v>188</v>
       </c>
       <c r="H36" s="7">
         <v>66</v>
       </c>
       <c r="I36" s="7">
-        <v>54174</v>
+        <v>51120</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>40</v>
+        <v>585</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>312</v>
+        <v>233</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>596</v>
+        <v>142</v>
       </c>
       <c r="M36" s="7">
         <v>113</v>
       </c>
       <c r="N36" s="7">
-        <v>101398</v>
+        <v>98711</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>299</v>
+        <v>506</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>597</v>
+        <v>185</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>347</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10006,46 +9970,46 @@
         <v>9</v>
       </c>
       <c r="D37" s="7">
-        <v>11504</v>
+        <v>10862</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>13</v>
+        <v>342</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>381</v>
+        <v>71</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
       </c>
       <c r="I37" s="7">
-        <v>17470</v>
+        <v>16503</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>238</v>
+        <v>586</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>77</v>
+        <v>468</v>
       </c>
       <c r="M37" s="7">
         <v>29</v>
       </c>
       <c r="N37" s="7">
-        <v>28974</v>
+        <v>27365</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>255</v>
+        <v>440</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10057,46 +10021,46 @@
         <v>1453</v>
       </c>
       <c r="D38" s="7">
-        <v>1147437</v>
+        <v>1080966</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="H38" s="7">
         <v>2229</v>
       </c>
       <c r="I38" s="7">
-        <v>1438900</v>
+        <v>1421704</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>601</v>
+        <v>371</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="M38" s="7">
         <v>3682</v>
       </c>
       <c r="N38" s="7">
-        <v>2586337</v>
+        <v>2502670</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10108,7 +10072,7 @@
         <v>1662</v>
       </c>
       <c r="D39" s="7">
-        <v>1410250</v>
+        <v>1541503</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>68</v>
@@ -10123,7 +10087,7 @@
         <v>2568</v>
       </c>
       <c r="I39" s="7">
-        <v>1694629</v>
+        <v>1663335</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>68</v>
@@ -10138,7 +10102,7 @@
         <v>4230</v>
       </c>
       <c r="N39" s="7">
-        <v>3104879</v>
+        <v>3204838</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>68</v>
